--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ccl5-Sdc1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ccl5-Sdc1.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.74394591302</v>
+        <v>1.770179333333333</v>
       </c>
       <c r="H2">
-        <v>1.74394591302</v>
+        <v>5.310538</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.806414908303641</v>
+        <v>0.8369776666666665</v>
       </c>
       <c r="N2">
-        <v>0.806414908303641</v>
+        <v>2.510933</v>
       </c>
       <c r="O2">
-        <v>0.07188999988531465</v>
+        <v>0.0694586718035551</v>
       </c>
       <c r="P2">
-        <v>0.07188999988531465</v>
+        <v>0.06945867180355511</v>
       </c>
       <c r="Q2">
-        <v>1.406343983534533</v>
+        <v>1.481600567994889</v>
       </c>
       <c r="R2">
-        <v>1.406343983534533</v>
+        <v>13.334405111954</v>
       </c>
       <c r="S2">
-        <v>0.07188999988531465</v>
+        <v>0.0694586718035551</v>
       </c>
       <c r="T2">
-        <v>0.07188999988531465</v>
+        <v>0.06945867180355511</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.74394591302</v>
+        <v>1.770179333333333</v>
       </c>
       <c r="H3">
-        <v>1.74394591302</v>
+        <v>5.310538</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.41824922194762</v>
+        <v>2.427350333333333</v>
       </c>
       <c r="N3">
-        <v>2.41824922194762</v>
+        <v>7.282051</v>
       </c>
       <c r="O3">
-        <v>0.2155812528989324</v>
+        <v>0.2014397000898671</v>
       </c>
       <c r="P3">
-        <v>0.2155812528989324</v>
+        <v>0.2014397000898671</v>
       </c>
       <c r="Q3">
-        <v>4.217295847279347</v>
+        <v>4.296845394826445</v>
       </c>
       <c r="R3">
-        <v>4.217295847279347</v>
+        <v>38.671608553438</v>
       </c>
       <c r="S3">
-        <v>0.2155812528989324</v>
+        <v>0.2014397000898671</v>
       </c>
       <c r="T3">
-        <v>0.2155812528989324</v>
+        <v>0.2014397000898671</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.74394591302</v>
+        <v>1.770179333333333</v>
       </c>
       <c r="H4">
-        <v>1.74394591302</v>
+        <v>5.310538</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.99268055732846</v>
+        <v>8.785681666666667</v>
       </c>
       <c r="N4">
-        <v>7.99268055732846</v>
+        <v>26.357045</v>
       </c>
       <c r="O4">
-        <v>0.7125287472157529</v>
+        <v>0.7291016281065776</v>
       </c>
       <c r="P4">
-        <v>0.7125287472157529</v>
+        <v>0.7291016281065776</v>
       </c>
       <c r="Q4">
-        <v>13.93880259202738</v>
+        <v>15.55223211557889</v>
       </c>
       <c r="R4">
-        <v>13.93880259202738</v>
+        <v>139.97008904021</v>
       </c>
       <c r="S4">
-        <v>0.7125287472157529</v>
+        <v>0.7291016281065776</v>
       </c>
       <c r="T4">
-        <v>0.7125287472157529</v>
+        <v>0.7291016281065776</v>
       </c>
     </row>
   </sheetData>
